--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -271,24 +271,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,7 +297,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,16 +690,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375"/>
     <col min="2" max="2" width="35.28515625"/>
-    <col min="3" max="4" width="12.5703125" style="7"/>
-    <col min="5" max="5" width="48.7109375" style="7"/>
+    <col min="3" max="4" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="48.7109375" style="1"/>
     <col min="6" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
@@ -709,433 +709,497 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="C9" s="5">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="C11" s="8">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
+      <c r="C12" s="8">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
         <v>30</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14">
-        <v>5</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="C14" s="8">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14">
-        <v>5</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="C16" s="8">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14">
+      <c r="C18" s="8">
         <v>7</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="C19" s="8">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
-        <v>5</v>
-      </c>
-      <c r="E20" s="14"/>
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
-        <v>10</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="C21" s="8">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14">
-        <v>10</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="C22" s="8">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14">
-        <v>5</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="C23" s="8">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14">
-        <v>5</v>
-      </c>
-      <c r="E24" s="14"/>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14">
-        <v>10</v>
-      </c>
-      <c r="E25" s="14"/>
+      <c r="C25" s="8">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
+        <v>10</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14"/>
+      <c r="C26" s="8">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14">
-        <v>10</v>
-      </c>
-      <c r="E27" s="14"/>
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14">
-        <v>5</v>
-      </c>
-      <c r="E28" s="14"/>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14">
-        <v>5</v>
-      </c>
-      <c r="E29" s="14"/>
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14">
-        <v>10</v>
-      </c>
-      <c r="E30" s="14"/>
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>10</v>
+      </c>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14">
-        <v>5</v>
-      </c>
-      <c r="E31" s="14"/>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14">
-        <v>5</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="C32" s="8">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14">
-        <v>5</v>
-      </c>
-      <c r="E33" s="14"/>
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14">
-        <v>10</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16">
-        <v>10</v>
-      </c>
-      <c r="E36" s="16"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10">
+        <v>10</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16">
-        <v>5</v>
-      </c>
-      <c r="E37" s="16"/>
+      <c r="C37" s="10">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16">
-        <v>10</v>
-      </c>
-      <c r="E38" s="16"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16">
-        <v>5</v>
-      </c>
-      <c r="E39" s="16"/>
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>5</v>
+      </c>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16">
-        <v>5</v>
-      </c>
-      <c r="E40" s="16"/>
+      <c r="C40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16">
-        <v>5</v>
-      </c>
-      <c r="E41" s="16"/>
+      <c r="C41" s="10">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16">
+      <c r="C42" s="10">
         <v>20</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="D42" s="10">
+        <v>20</v>
+      </c>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16">
-        <v>10</v>
-      </c>
-      <c r="E43" s="16"/>
+      <c r="C43" s="10">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10">
+        <v>10</v>
+      </c>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="12">
         <f>SUM(C6:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="18">
+        <v>279</v>
+      </c>
+      <c r="D44" s="12">
         <v>370</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
